--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -8,48 +8,84 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guadalupetorres/Desktop/QMBE-3730-Guadalupe-Torres-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABFC26F6-9AE6-804B-94B4-57B4109299F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB5D7E3-A7E2-B34C-9A83-F764E69B0E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1600" windowWidth="28800" windowHeight="16400" xr2:uid="{D8031B7E-A8A6-4544-91D0-FD91EEBEFC85}"/>
+    <workbookView xWindow="280" yWindow="1580" windowWidth="28800" windowHeight="13720" activeTab="1" xr2:uid="{D8031B7E-A8A6-4544-91D0-FD91EEBEFC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data " sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Regression" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Part 2'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Part 2'!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Part 2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Part 2'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Part 2'!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Part 2'!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Part 2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Part 2'!$B$2:$B$37</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Part 2'!$A$1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Sales Data '!$J$2</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Sales Data '!$J$2</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Sales Data '!$J$2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Part 2'!$E$22</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Sales Data '!$M$32</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Week</t>
   </si>
@@ -129,6 +165,171 @@
   </si>
   <si>
     <t>5 week absolute percent error</t>
+  </si>
+  <si>
+    <t>MAE in week 3 forecast performed the best with the numbr being : 1.691358025</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t>Month 2</t>
+  </si>
+  <si>
+    <t>Month 3</t>
+  </si>
+  <si>
+    <t>Month 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month 5</t>
+  </si>
+  <si>
+    <t>Month 6</t>
+  </si>
+  <si>
+    <t>Month 7</t>
+  </si>
+  <si>
+    <t>Month 8</t>
+  </si>
+  <si>
+    <t>Month 9</t>
+  </si>
+  <si>
+    <t>Month 10</t>
+  </si>
+  <si>
+    <t>Month 11</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Forcast</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>The graph show seasonal flunctuations, we can see that the restraunt does better  in sales during the end of the year  and does less in sales during the first few months of the year.</t>
+  </si>
+  <si>
+    <t>Karen needs to know that the model eestimates sales for each month based on past data collected.Coeffiecients for dummy varaibles indicate how wach months sales compare to the base month</t>
+  </si>
+  <si>
+    <t>January sales turn out to be $295,000 the forecast error would be 15,000 and the percentage error would be 5.08</t>
+  </si>
+  <si>
+    <t>To address Karen concerns, we need to explain how this forecast was conducted, and the accuracy of the data. There was also basic assumptions that were made and there could be other unforeseen seasonal trends or market changes that can result in the # being high</t>
   </si>
 </sst>
 </file>
@@ -138,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +368,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,11 +405,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,6 +439,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +465,1194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Part 2'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC48-5C41-8514-028B157A2F23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="566982431"/>
+        <c:axId val="566423391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="566982431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566423391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566423391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566982431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB13EF7-0A78-C34F-3B77-0834228D84A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0238E4D1-A3B9-4F1F-873A-20E8F4C2A5A2}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2561,7 +4001,6 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U30">
-        <f>B32-F32</f>
         <v>0</v>
       </c>
       <c r="V30">
@@ -2644,6 +4083,2242 @@
         <v>10.254630873531127</v>
       </c>
     </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82960C-8475-8B48-B175-E8383DB53E86}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>262.33</v>
+      </c>
+      <c r="E2">
+        <f>IF(A2=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(A2=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(A2=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(A2=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(A2=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(A2=6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF(A2=7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(A2=8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IF(A2=9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF(A2=10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>IF(A2=11,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>242.67</v>
+      </c>
+      <c r="E3">
+        <f>IF(A3=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(A2=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>IF(A3=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">IF(A3=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">IF(A3=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="2">IF(A3=6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="3">IF(A3=7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="4">IF(A3=8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="5">IF(A3=9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="6">IF(A3=10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="7">IF(A3=11,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>248</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="8">IF(A4=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>IF(A2=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>192</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="9">IF(A3=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>195.67</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>149.66999999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>156</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>162.33000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>119.33</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>136</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>223.67</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>263</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>238</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>247</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>193</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>193</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>149</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>157</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>161</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>122</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>167</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>282</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>265</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>205</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>160</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>166</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>174</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>126</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>148</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>173</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>235</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4490E1BD-9681-D542-BA93-24AA1225140F}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.97376866998816569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.94822542265052123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.92449540803201025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12.95933811752918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>73819.638888888876</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6710.8762626262615</v>
+      </c>
+      <c r="E12" s="6">
+        <v>39.958905963371642</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.0167194194730488E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4030.6666666666742</v>
+      </c>
+      <c r="D13" s="6">
+        <v>167.94444444444477</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7">
+        <v>77850.305555555547</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6">
+        <v>223.66666666666666</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7.4820773506748459</v>
+      </c>
+      <c r="D17" s="6">
+        <v>29.893658697138843</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.6716223356111493E-20</v>
+      </c>
+      <c r="F17" s="6">
+        <v>208.22441798461921</v>
+      </c>
+      <c r="G17" s="6">
+        <v>239.10891534871411</v>
+      </c>
+      <c r="H17" s="6">
+        <v>208.22441798461921</v>
+      </c>
+      <c r="I17" s="6">
+        <v>239.10891534871411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6">
+        <v>38.666666666666629</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10.58125526404892</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.6542608321756731</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.2558519910310375E-3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>16.828029146977091</v>
+      </c>
+      <c r="G18" s="6">
+        <v>60.50530418635617</v>
+      </c>
+      <c r="H18" s="6">
+        <v>16.828029146977091</v>
+      </c>
+      <c r="I18" s="6">
+        <v>60.50530418635617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18.999999999999954</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10.581255264048938</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.7956281675345924</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8.5156393612995582E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-2.8386375196896232</v>
+      </c>
+      <c r="G19" s="6">
+        <v>40.838637519689527</v>
+      </c>
+      <c r="H19" s="6">
+        <v>-2.8386375196896232</v>
+      </c>
+      <c r="I19" s="6">
+        <v>40.838637519689527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
+        <v>24.333333333333346</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10.581255264048924</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.2996641443864179</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.0471582297103138E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2.4946958136438013</v>
+      </c>
+      <c r="G20" s="6">
+        <v>46.171970853022891</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.4946958136438013</v>
+      </c>
+      <c r="I20" s="6">
+        <v>46.171970853022891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-31.666666666666654</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10.581255264048925</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-2.9927136125576634</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6.3140658285535589E-3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-53.505304186356199</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-9.8280291469771051</v>
+      </c>
+      <c r="H21" s="6">
+        <v>-53.505304186356199</v>
+      </c>
+      <c r="I21" s="6">
+        <v>-9.8280291469771051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-27.999999999999986</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10.581255264048927</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-2.6461888784720387</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.414243944699888E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-49.838637519689541</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-6.1613624803104337</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-49.838637519689541</v>
+      </c>
+      <c r="I22" s="6">
+        <v>-6.1613624803104337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-74.000000000000028</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10.581255264048933</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-6.9934991788189622</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.1282294214944371E-7</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-95.838637519689598</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-52.161362480310466</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-95.838637519689598</v>
+      </c>
+      <c r="I23" s="6">
+        <v>-52.161362480310466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-67.666666666666671</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10.581255264048929</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-6.3949564563074297</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.3007812708599671E-6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>-89.505304186356227</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-45.828029146977116</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-89.505304186356227</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-45.828029146977116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-61.333333333333336</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10.581255264048929</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-5.7964137337958963</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5.6326000413513701E-6</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-83.171970853022884</v>
+      </c>
+      <c r="G25" s="6">
+        <v>-39.49469581364378</v>
+      </c>
+      <c r="H25" s="6">
+        <v>-83.171970853022884</v>
+      </c>
+      <c r="I25" s="6">
+        <v>-39.49469581364378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-104.33333333333339</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10.581255264048933</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-9.8602037971636722</v>
+      </c>
+      <c r="E26" s="6">
+        <v>6.4665148025715785E-10</v>
+      </c>
+      <c r="F26" s="6">
+        <v>-126.17197085302294</v>
+      </c>
+      <c r="G26" s="6">
+        <v>-82.49469581364383</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-126.17197085302294</v>
+      </c>
+      <c r="I26" s="6">
+        <v>-82.49469581364383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-87.666666666666629</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10.581255264048927</v>
+      </c>
+      <c r="D27" s="6">
+        <v>-8.2850913695017407</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.6886839314289268E-8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>-109.50530418635618</v>
+      </c>
+      <c r="G27" s="6">
+        <v>-65.828029146977073</v>
+      </c>
+      <c r="H27" s="6">
+        <v>-109.50530418635618</v>
+      </c>
+      <c r="I27" s="6">
+        <v>-65.828029146977073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7">
+        <v>-59.666666666666671</v>
+      </c>
+      <c r="C28" s="7">
+        <v>10.581255264048927</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-5.6389024910297048</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8.3319865069504446E-6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>-81.505304186356227</v>
+      </c>
+      <c r="G28" s="7">
+        <v>-37.828029146977116</v>
+      </c>
+      <c r="H28" s="7">
+        <v>-81.505304186356227</v>
+      </c>
+      <c r="I28" s="7">
+        <v>-37.828029146977116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
